--- a/output/Variable_correlations_AICc_Era2_for_paper.xlsx
+++ b/output/Variable_correlations_AICc_Era2_for_paper.xlsx
@@ -19,45 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
-    <t>ReproductiveFemales</t>
+    <t>Bairdi females</t>
   </si>
   <si>
-    <t>logRS</t>
+    <t>Pacific cod</t>
   </si>
   <si>
-    <t>Ovig_female_CO</t>
+    <t>FHS TBM RA2</t>
   </si>
   <si>
-    <t>PCod_RA2</t>
+    <t>FHS TBM</t>
   </si>
   <si>
-    <t>PCod_RA3</t>
+    <t>Opilio females</t>
   </si>
   <si>
-    <t>FHS_lag2</t>
+    <t xml:space="preserve">PDO_RA3 </t>
   </si>
   <si>
-    <t>FHS_RA2</t>
+    <t>PDO RA3</t>
   </si>
   <si>
-    <t>NBT_3RA</t>
+    <t>SST MJ</t>
   </si>
   <si>
-    <t>SE.wind</t>
+    <t>AO RA3</t>
   </si>
   <si>
-    <t>AO_RA3</t>
+    <t>NBT RA3</t>
   </si>
   <si>
-    <t>PDO_RA3</t>
+    <t>SE wind</t>
   </si>
   <si>
-    <t>SST_May_July</t>
-  </si>
-  <si>
-    <t>NE.wind</t>
+    <t>NE wind</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,19 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,12 +544,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,624 +869,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.79769335042237699</v>
+        <v>7.5542021076364096E-2</v>
       </c>
       <c r="D2" s="1">
+        <v>-0.12326304559171999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.116381312450044</v>
+      </c>
+      <c r="F2" s="1">
         <v>-0.22984573957052601</v>
       </c>
-      <c r="E2" s="1">
-        <v>8.4551837181375294E-2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
+        <v>-1.5757266387229601E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.174480377556818</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.4240694023604994E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.107079042227577</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.50455617437156097</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.7938939225611894E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>7.5542021076364096E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-0.116381312450044</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-0.12326304559171999</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.107079042227577</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.50455617437156097</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.4240694023604994E-2</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-1.5757266387229601E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>-0.174480377556818</v>
-      </c>
-      <c r="N2" s="1">
-        <v>8.7938939225611894E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-0.79769335042237699</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>-6.2092535488134398E-2</v>
+        <v>-0.56682949678209305</v>
       </c>
       <c r="E3" s="1">
-        <v>-5.7128341108933202E-2</v>
+        <v>-0.512869904439192</v>
       </c>
       <c r="F3" s="1">
-        <v>-9.8416572835917399E-2</v>
+        <v>0.55149155680180795</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.18299537605819899</v>
+        <v>-0.61408326868824503</v>
       </c>
       <c r="H3" s="1">
-        <v>-3.6167009826320699E-2</v>
+        <v>-0.727225649423209</v>
       </c>
       <c r="I3" s="1">
-        <v>3.7698246069678698E-2</v>
+        <v>-9.2286625228009803E-2</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.32223794185800603</v>
+        <v>-0.160552112081186</v>
       </c>
       <c r="K3" s="1">
-        <v>0.31827688586717601</v>
+        <v>-6.1676474101074602E-2</v>
       </c>
       <c r="L3" s="1">
-        <v>0.27285623971233502</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.120538207811155</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.16490159456926601</v>
+        <v>0.12944646216783301</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.22984573957052601</v>
+        <v>-0.12326304559171999</v>
       </c>
       <c r="C4" s="1">
-        <v>-6.2092535488134398E-2</v>
+        <v>-0.56682949678209305</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.45995748246163798</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.55149155680180795</v>
+      <c r="E4" s="1">
+        <v>0.83357205412145097</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.44180531059695E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>2.2144963728945598E-2</v>
+        <v>0.41419184515413399</v>
       </c>
       <c r="H4" s="1">
-        <v>6.44180531059695E-2</v>
+        <v>0.60850812929773301</v>
       </c>
       <c r="I4" s="1">
-        <v>-0.116257669346244</v>
+        <v>-0.137148809944457</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.196366290235685</v>
+        <v>2.2235010428563899E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>-0.37587972505695</v>
+        <v>-0.15217475509928</v>
       </c>
       <c r="L4" s="1">
-        <v>-0.37873757057899299</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-0.29829037407833198</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.04189410442827E-2</v>
+        <v>-6.0358298146324298E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>8.4551837181375294E-2</v>
+        <v>-0.116381312450044</v>
       </c>
       <c r="C5" s="1">
-        <v>-5.7128341108933202E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.45995748246163798</v>
+        <v>-0.512869904439192</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.83357205412145097</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
-        <v>0.93225247875247697</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-0.49579475602103801</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-0.60151584049270201</v>
+      <c r="F5" s="1">
+        <v>2.2144963728945598E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.30304084691116001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.63395602064355505</v>
       </c>
       <c r="I5" s="1">
-        <v>9.1227924233240706E-2</v>
+        <v>-7.3594719823028204E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>-8.0743947777084296E-2</v>
+        <v>0.19464363662460901</v>
       </c>
       <c r="K5" s="1">
-        <v>-2.8182109660041098E-2</v>
+        <v>-0.22125801393289299</v>
       </c>
       <c r="L5" s="1">
-        <v>-0.41465294727506302</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-0.57461796725459302</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.157827658062862</v>
+        <v>-0.119600151645959</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7.5542021076364096E-2</v>
+        <v>-0.22984573957052601</v>
       </c>
       <c r="C6" s="1">
-        <v>-9.8416572835917399E-2</v>
-      </c>
-      <c r="D6" s="2">
         <v>0.55149155680180795</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.93225247875247697</v>
+      <c r="D6" s="1">
+        <v>6.44180531059695E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.2144963728945598E-2</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>-0.512869904439192</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-0.56682949678209305</v>
+      <c r="G6" s="1">
+        <v>-0.37873757057899299</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-0.29829037407833198</v>
       </c>
       <c r="I6" s="1">
-        <v>-0.160552112081186</v>
+        <v>-0.37587972505695</v>
       </c>
       <c r="J6" s="1">
-        <v>-6.1676474101074602E-2</v>
+        <v>-0.116257669346244</v>
       </c>
       <c r="K6" s="1">
-        <v>-9.2286625228009803E-2</v>
-      </c>
-      <c r="L6" s="2">
+        <v>-0.196366290235685</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.04189410442827E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1.5757266387229601E-2</v>
+      </c>
+      <c r="C7" s="1">
         <v>-0.61408326868824503</v>
       </c>
-      <c r="M6" s="4">
-        <v>-0.727225649423209</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.12944646216783301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-0.116381312450044</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.18299537605819899</v>
-      </c>
       <c r="D7" s="1">
-        <v>2.2144963728945598E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-0.49579475602103801</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.512869904439192</v>
+        <v>0.41419184515413399</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.30304084691116001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.37873757057899299</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.83357205412145097</v>
+        <v>0.67876147222120597</v>
       </c>
       <c r="I7" s="1">
-        <v>0.19464363662460901</v>
+        <v>0.351540363754904</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.22125801393289299</v>
+        <v>0.57545746855059898</v>
       </c>
       <c r="K7" s="1">
-        <v>-7.3594719823028204E-2</v>
+        <v>-8.8472944961024008E-3</v>
       </c>
       <c r="L7" s="1">
-        <v>0.30304084691116001</v>
-      </c>
-      <c r="M7" s="2">
+        <v>0.13970425385125801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.174480377556818</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.727225649423209</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.60850812929773301</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.63395602064355505</v>
       </c>
-      <c r="N7" s="1">
-        <v>-0.119600151645959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-0.12326304559171999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-3.6167009826320699E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6.44180531059695E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.60151584049270201</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-0.56682949678209305</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.83357205412145097</v>
+      <c r="F8" s="1">
+        <v>-0.29829037407833198</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.67876147222120597</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>2.2235010428563899E-2</v>
+        <v>0.15804813278242899</v>
       </c>
       <c r="J8" s="1">
-        <v>-0.15217475509928</v>
+        <v>0.57475537337042104</v>
       </c>
       <c r="K8" s="1">
+        <v>-0.229380165903946</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-0.19741592333348401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.4240694023604994E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-9.2286625228009803E-2</v>
+      </c>
+      <c r="D9" s="1">
         <v>-0.137148809944457</v>
       </c>
-      <c r="L8" s="3">
-        <v>0.41419184515413399</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.60850812929773301</v>
-      </c>
-      <c r="N8" s="1">
-        <v>-6.0358298146324298E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.107079042227577</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.7698246069678698E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-0.116257669346244</v>
-      </c>
       <c r="E9" s="1">
-        <v>9.1227924233240706E-2</v>
+        <v>-7.3594719823028204E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.160552112081186</v>
+        <v>-0.37587972505695</v>
       </c>
       <c r="G9" s="1">
-        <v>0.19464363662460901</v>
+        <v>0.351540363754904</v>
       </c>
       <c r="H9" s="1">
-        <v>2.2235010428563899E-2</v>
+        <v>0.15804813278242899</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>-3.8350206402742101E-2</v>
-      </c>
-      <c r="K9" s="3">
         <v>0.41981232929606099</v>
       </c>
+      <c r="K9" s="1">
+        <v>0.395095166494211</v>
+      </c>
       <c r="L9" s="1">
+        <v>0.45294184933929599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.107079042227577</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.160552112081186</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2235010428563899E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.19464363662460901</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.116257669346244</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.57545746855059898</v>
       </c>
-      <c r="M9" s="2">
+      <c r="H10" s="1">
         <v>0.57475537337042104</v>
       </c>
-      <c r="N9" s="1">
-        <v>0.185655136003682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.50455617437156097</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-0.32223794185800603</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-0.196366290235685</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-8.0743947777084296E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-6.1676474101074602E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-0.22125801393289299</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-0.15217475509928</v>
-      </c>
       <c r="I10" s="1">
-        <v>-3.8350206402742101E-2</v>
+        <v>0.41981232929606099</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
+        <v>-3.8350206402742101E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.185655136003682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.50455617437156097</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-6.1676474101074602E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.15217475509928</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.22125801393289299</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.196366290235685</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-8.8472944961024008E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.229380165903946</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.395095166494211</v>
       </c>
-      <c r="L10" s="3">
-        <v>-8.8472944961024008E-3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-0.229380165903946</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.41361592071366399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6.4240694023604994E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.31827688586717601</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-0.37587972505695</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-2.8182109660041098E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-9.2286625228009803E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-7.3594719823028204E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-0.137148809944457</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.41981232929606099</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.395095166494211</v>
+      <c r="J11" s="1">
+        <v>-3.8350206402742101E-2</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>0.351540363754904</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.15804813278242899</v>
-      </c>
-      <c r="N11" s="3">
+        <v>0.41361592071366399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.7938939225611894E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.12944646216783301</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-6.0358298146324298E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.119600151645959</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.04189410442827E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.13970425385125801</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-0.19741592333348401</v>
+      </c>
+      <c r="I12" s="1">
         <v>0.45294184933929599</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-1.5757266387229601E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.27285623971233502</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-0.37873757057899299</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.41465294727506302</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-0.61408326868824503</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.30304084691116001</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.41419184515413399</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.57545746855059898</v>
-      </c>
       <c r="J12" s="1">
-        <v>-8.8472944961024008E-3</v>
+        <v>0.185655136003682</v>
       </c>
       <c r="K12" s="1">
-        <v>0.351540363754904</v>
+        <v>0.41361592071366399</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.67876147222120597</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.13970425385125801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-0.174480377556818</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.120538207811155</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-0.29829037407833198</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.57461796725459302</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-0.727225649423209</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.63395602064355505</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.60850812929773301</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.57475537337042104</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-0.229380165903946</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.15804813278242899</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.67876147222120597</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-0.19741592333348401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8.7938939225611894E-3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.16490159456926601</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.04189410442827E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.157827658062862</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.12944646216783301</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.119600151645959</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-6.0358298146324298E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.185655136003682</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.41361592071366399</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.45294184933929599</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.13970425385125801</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-0.19741592333348401</v>
-      </c>
-      <c r="N14" s="1">
         <v>1</v>
       </c>
     </row>
